--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6A3653-0A39-4DFB-8A35-665FCB5144BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7474698-94E2-44DC-8B32-C0EC9596CCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -192,6 +192,14 @@
     <rPh sb="0" eb="4">
       <t>ガメンセッケイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memoly</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -617,24 +625,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,9 +655,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +672,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,16 +716,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165049</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104469</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28813</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67541</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164884</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -732,7 +740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673049" y="1247469"/>
+          <a:off x="1317120" y="1383539"/>
           <a:ext cx="3419764" cy="4344572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -778,16 +786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165049</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28813</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54841</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164884</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -802,7 +810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673049" y="1225550"/>
+          <a:off x="1317120" y="1361620"/>
           <a:ext cx="3419764" cy="4353791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -849,16 +857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161271</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43342</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>35309</xdr:rowOff>
+      <xdr:rowOff>171379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102867</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150502</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238938</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -873,7 +881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939271" y="2321309"/>
+          <a:off x="2583342" y="2457379"/>
           <a:ext cx="957596" cy="496193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,16 +921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117306</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136194</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205458</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>162789</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87529</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -937,7 +945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048123" y="4498806"/>
+          <a:off x="3692194" y="4634876"/>
           <a:ext cx="967335" cy="997983"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -984,82 +992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>154856</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60368</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153238</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>231942</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16768</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="涙形 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48D323-A7EF-414D-9C7C-7CC37458815A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8086101">
-          <a:off x="2183699" y="2921025"/>
-          <a:ext cx="337400" cy="331086"/>
-        </a:xfrm>
-        <a:prstGeom prst="teardrop">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17167</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>116703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>174284</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56355</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>27708</xdr:rowOff>
+      <xdr:rowOff>163778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1074,7 +1016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1033167" y="4498203"/>
+          <a:off x="1677238" y="4634273"/>
           <a:ext cx="1681117" cy="673005"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1122,16 +1064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>72818</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186871</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>34585</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99985</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45555</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1146,8 +1088,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="812800" y="1406318"/>
-          <a:ext cx="237785" cy="217667"/>
+          <a:off x="1456871" y="1572270"/>
+          <a:ext cx="237785" cy="221403"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1277,16 +1219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222505</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>98372</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125270</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234443</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1301,7 +1243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746505" y="1312768"/>
+          <a:off x="2390576" y="1448838"/>
           <a:ext cx="1399867" cy="336502"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1352,16 +1294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>101717</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>81501</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>237788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>187563</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68119</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69634</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,7 +1318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657717" y="1415001"/>
+          <a:off x="4301788" y="1551071"/>
           <a:ext cx="339846" cy="367618"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
@@ -1420,162 +1362,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>13515</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>116321</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>131279</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88612</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D9C0B5-D552-4A53-81A5-9C407613DF6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5347515" y="1259321"/>
-          <a:ext cx="3419764" cy="4353791"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>24461</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>219313</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90343</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1408D630-C749-4782-BCC0-672105E02F5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5358461" y="1254138"/>
-          <a:ext cx="1464852" cy="4360705"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:alpha val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36179</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>174592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>219312</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>128444</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FB908A-DCD7-44BB-896B-1D77FC1BE60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DAD3A8-4983-4450-80DA-1B96D7769ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5370179" y="1889092"/>
-          <a:ext cx="1453133" cy="4335352"/>
+          <a:off x="979714" y="1406072"/>
+          <a:ext cx="1016000" cy="807357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,83 +1416,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>マップ</a:t>
+            <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>称号</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ストーリー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>使い方</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1699,23 +1435,461 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>155235</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90667</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C514E7E-90C9-496C-8A4D-648AEE85C50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013857" y="1360714"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA9E2CB-B694-404A-A3FE-FE04895DCBE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3982357" y="1514929"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEEC862-5395-4DA3-92CA-FB5483A8EAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211286" y="1378857"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F163BA25-80C8-48FC-8043-19A3099792FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329214" y="2893786"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97246D70-A319-42AB-A887-1B249ACD970F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664856" y="4218215"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB98A2BF-1A1E-4337-AB5D-13997FD5633C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968499" y="4245429"/>
+          <a:ext cx="1016000" cy="807357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167229</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31190</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="73" name="グループ化 72">
+        <xdr:cNvPr id="8" name="グループ化 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB975759-1933-4058-A850-160C818716C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC67115C-AF92-4332-8CEA-A73DC412335E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,18 +1897,71 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="1397000"/>
-          <a:ext cx="237785" cy="217667"/>
-          <a:chOff x="6582064" y="8647545"/>
-          <a:chExt cx="415636" cy="374074"/>
+          <a:off x="3478301" y="1532003"/>
+          <a:ext cx="244928" cy="247305"/>
+          <a:chOff x="6504214" y="2364487"/>
+          <a:chExt cx="244928" cy="245356"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="楕円 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC8854B-0DC7-4B98-BC82-3EC7B2D190D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6504214" y="2364487"/>
+            <a:ext cx="199572" cy="202333"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="直線コネクタ 73">
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE49610-9D87-49EA-934B-B00F321C63C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5ADF747-5ECD-4020-B248-FF6AD6F1D1C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1742,15 +1969,15 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6582064" y="8647545"/>
-            <a:ext cx="415636" cy="0"/>
+            <a:off x="6677150" y="2542332"/>
+            <a:ext cx="71992" cy="67511"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
           <a:ln w="38100">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -1769,86 +1996,145 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="75" name="直線コネクタ 74">
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36927</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114013</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152838</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F407DF86-0474-46B8-8BDA-D3757E33E88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2830927" y="3113703"/>
+          <a:ext cx="331086" cy="341135"/>
+          <a:chOff x="2830927" y="3113703"/>
+          <a:chExt cx="331086" cy="341135"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="涙形 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7613AD02-5F9D-434D-A787-54D741D5D08A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48D323-A7EF-414D-9C7C-7CC37458815A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6582064" y="8834582"/>
-            <a:ext cx="415636" cy="0"/>
+          <a:xfrm rot="8086101">
+            <a:off x="2825902" y="3118728"/>
+            <a:ext cx="341135" cy="331086"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
+          <a:prstGeom prst="teardrop">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 143533"/>
+            </a:avLst>
           </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
-          <a:fillRef idx="0">
+          <a:fillRef idx="1">
             <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="76" name="直線コネクタ 75">
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="楕円 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D809E32A-49CE-45AC-8DBF-A4642A0BC1B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CE2D1C-6B6E-4789-AA6E-D35B7DF57405}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6582064" y="9021619"/>
-            <a:ext cx="415636" cy="0"/>
+            <a:off x="2921001" y="3204882"/>
+            <a:ext cx="149411" cy="149411"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
-          <a:fillRef idx="0">
+          <a:fillRef idx="1">
             <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
             <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2178,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:AN3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2188,156 +2474,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37">
         <v>605</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23">
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39">
         <v>605</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7474698-94E2-44DC-8B32-C0EC9596CCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C6DAE-AFDC-42ED-BDF9-CCBBCB810E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -200,6 +200,206 @@
   </si>
   <si>
     <t>memoly</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「２　検索」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索したい用語を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「３　虫眼鏡」をクリック</t>
+    <rPh sb="3" eb="6">
+      <t>ムシメガネ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索したい用語を探す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「４　顔マーク」をクリック</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「５　マップ」　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップが見れる</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「６　キャラクター」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージを出力、音声を出力</t>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「７　メッセージ欄」をクリック</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージを非表示にする</t>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「１　ドロワーメニュー」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドラワーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>imput</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索バー</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_search</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_execute</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在地に戻る</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>current_location</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>imgea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在地</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chaqracter</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>messeji</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1088,8 +1288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1456871" y="1572270"/>
-          <a:ext cx="237785" cy="221403"/>
+          <a:off x="1464170" y="1536549"/>
+          <a:ext cx="239245" cy="216937"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1220,15 +1420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104576</xdr:colOff>
+      <xdr:colOff>126473</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>115338</xdr:rowOff>
+      <xdr:rowOff>86143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234443</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>70840</xdr:rowOff>
+      <xdr:rowOff>41645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1243,8 +1443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390576" y="1448838"/>
-          <a:ext cx="1399867" cy="336502"/>
+          <a:off x="2425611" y="1414534"/>
+          <a:ext cx="1407166" cy="335042"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1897,8 +2097,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3478301" y="1532003"/>
-          <a:ext cx="244928" cy="247305"/>
+          <a:off x="3497278" y="1500747"/>
+          <a:ext cx="246388" cy="238374"/>
           <a:chOff x="6504214" y="2364487"/>
           <a:chExt cx="244928" cy="245356"/>
         </a:xfrm>
@@ -2025,8 +2225,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2830927" y="3113703"/>
-          <a:ext cx="331086" cy="341135"/>
+          <a:off x="2846984" y="3042260"/>
+          <a:ext cx="332546" cy="336670"/>
           <a:chOff x="2830927" y="3113703"/>
           <a:chExt cx="331086" cy="341135"/>
         </a:xfrm>
@@ -2464,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4146,7 +4346,9 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4188,14 +4390,6 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4230,14 +4424,6 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -4272,14 +4458,16 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -4317,7 +4505,9 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4397,6 +4587,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
+      <c r="D48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -4437,9 +4630,12 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -4517,6 +4713,9 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4559,7 +4758,9 @@
       <c r="B52" s="6"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -4597,6 +4798,9 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4638,7 +4842,9 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4717,6 +4923,9 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4758,7 +4967,9 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4837,6 +5048,9 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4878,7 +5092,9 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -5673,19 +5889,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -5715,19 +5941,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
+      <c r="O80" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
@@ -5757,19 +5993,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -5799,19 +6045,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5841,12 +6097,18 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
@@ -5883,16 +6145,24 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14"/>
@@ -5925,19 +6195,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>7</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C6DAE-AFDC-42ED-BDF9-CCBBCB810E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAC516-2D34-48D2-9F80-B7AD20709296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map_messji</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map_messeji</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2664,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6199,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -6211,25 +6223,33 @@
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
+      <c r="S85" s="14">
+        <v>0</v>
+      </c>
       <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
+      <c r="U85" s="14">
+        <v>50</v>
+      </c>
       <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
+      <c r="W85" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
+      <c r="AA85" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAC516-2D34-48D2-9F80-B7AD20709296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B17CD-C47D-48F5-A3A8-F3C4AE7A5A9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -188,13 +188,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面設計（メインのみ）</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -250,10 +243,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「５　マップ」　</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マップが見れる</t>
     <rPh sb="4" eb="5">
       <t>ミ</t>
@@ -300,19 +289,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ドラワーメニュー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>button</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>drawer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>imput</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -356,10 +337,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>imgea</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>現在地</t>
     <rPh sb="0" eb="3">
       <t>ゲンザイチ</t>
@@ -379,19 +356,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>chaqracter</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>image</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キャラクター</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>messeji</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -407,11 +376,44 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>map_messji</t>
+    <t>日渡</t>
+    <rPh sb="0" eb="2">
+      <t>ヒワタリ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>map_messeji</t>
+    <t>ドロワーメニューが表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「５　マップ」スクロール、クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドロワーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>map_message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>readonlyで出力する</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -787,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -904,6 +906,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2676,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2704,7 +2712,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -2732,7 +2740,7 @@
       </c>
       <c r="AG1" s="41"/>
       <c r="AH1" s="35" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -2758,7 +2766,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -2772,8 +2780,8 @@
         <v>1</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="37">
-        <v>605</v>
+      <c r="Y2" s="43">
+        <v>45082</v>
       </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37"/>
@@ -2785,8 +2793,8 @@
         <v>3</v>
       </c>
       <c r="AG2" s="38"/>
-      <c r="AH2" s="39">
-        <v>605</v>
+      <c r="AH2" s="42">
+        <v>45084</v>
       </c>
       <c r="AI2" s="39"/>
       <c r="AJ2" s="39"/>
@@ -2811,9 +2819,7 @@
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
-      <c r="N3" s="32" t="s">
-        <v>22</v>
-      </c>
+      <c r="N3" s="32"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
@@ -4359,7 +4365,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4402,6 +4408,9 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
+      <c r="G43" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4471,7 +4480,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4518,7 +4527,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -4600,7 +4609,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4646,7 +4655,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4726,7 +4735,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -4771,7 +4780,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4811,7 +4820,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -4855,7 +4864,7 @@
       <c r="B54" s="6"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -4936,7 +4945,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -4980,7 +4989,7 @@
       <c r="B57" s="6"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -5061,7 +5070,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -5105,7 +5114,7 @@
       <c r="B60" s="6"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -5905,24 +5914,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
@@ -5957,24 +5966,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -6009,19 +6018,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -6061,24 +6070,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -6113,13 +6122,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -6161,19 +6170,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6211,24 +6220,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -6242,17 +6251,19 @@
       </c>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
+      <c r="AD85" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B17CD-C47D-48F5-A3A8-F3C4AE7A5A9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC75E0E-2154-4536-805F-A08D8E45622E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -413,6 +413,26 @@
     <t>readonlyで出力する</t>
     <rPh sb="9" eb="11">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「８　スポット追加ボタン」クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マーカーが指している場所を記録する</t>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -896,8 +916,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,12 +932,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,8 +1328,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1464170" y="1536549"/>
-          <a:ext cx="239245" cy="216937"/>
+          <a:off x="1456871" y="1572270"/>
+          <a:ext cx="237785" cy="221403"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1515,15 +1535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>237788</xdr:colOff>
+      <xdr:colOff>228765</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>27071</xdr:rowOff>
+      <xdr:rowOff>63566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>69634</xdr:colOff>
+      <xdr:colOff>56666</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>13689</xdr:rowOff>
+      <xdr:rowOff>45970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1538,8 +1558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4301788" y="1551071"/>
-          <a:ext cx="339846" cy="367618"/>
+          <a:off x="4292765" y="1587566"/>
+          <a:ext cx="335901" cy="363404"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
           <a:avLst/>
@@ -1728,16 +1748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:rowOff>6257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1752,8 +1772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3982357" y="1514929"/>
-          <a:ext cx="1016000" cy="807357"/>
+          <a:off x="4091839" y="1334648"/>
+          <a:ext cx="396953" cy="504664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,8 +2137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3497278" y="1500747"/>
-          <a:ext cx="246388" cy="238374"/>
+          <a:off x="3478301" y="1532003"/>
+          <a:ext cx="244928" cy="247305"/>
           <a:chOff x="6504214" y="2364487"/>
           <a:chExt cx="244928" cy="245356"/>
         </a:xfrm>
@@ -2245,8 +2265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2846984" y="3042260"/>
-          <a:ext cx="332546" cy="336670"/>
+          <a:off x="2830927" y="3113703"/>
+          <a:ext cx="331086" cy="341135"/>
           <a:chOff x="2830927" y="3113703"/>
           <a:chExt cx="331086" cy="341135"/>
         </a:xfrm>
@@ -2356,6 +2376,2447 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212054</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>73376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117673</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F107385B-B1B5-474C-8592-AE4BE1F82C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4276054" y="2067324"/>
+          <a:ext cx="369322" cy="381173"/>
+          <a:chOff x="5073773" y="2252221"/>
+          <a:chExt cx="369322" cy="373702"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="楕円 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D47E9C-F070-42EE-B861-505CAE658736}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5073773" y="2252221"/>
+            <a:ext cx="369322" cy="373702"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="十字形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106824C8-9928-42A2-B9E1-28493F9AE7EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5171578" y="2351121"/>
+            <a:ext cx="173713" cy="175903"/>
+          </a:xfrm>
+          <a:prstGeom prst="plus">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 43277"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246576</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5B6C71-DD83-446E-AE94-386C23180160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4056576" y="1839820"/>
+          <a:ext cx="395493" cy="506124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>92477</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>210241</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A57018E-3101-4FB1-84C5-F3D7DC662892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172477" y="2540000"/>
+          <a:ext cx="3419764" cy="3175411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>192263</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>77964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121558</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE4423D-FF6F-4042-8147-378D943D75FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8320263" y="2697416"/>
+          <a:ext cx="139701" cy="143436"/>
+          <a:chOff x="3702049" y="2146299"/>
+          <a:chExt cx="241301" cy="241301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="楕円 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A666277D-D669-4618-8099-D06817DA6AC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3702049" y="2146299"/>
+            <a:ext cx="241301" cy="241301"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="乗算記号 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDA4308-401A-4C58-B08E-F6FE25CB999F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3746500" y="2184400"/>
+            <a:ext cx="158750" cy="158750"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMultiply">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 7471"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>223275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60735</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E809BC3-26AF-40A6-8E4C-D288B281E65D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811275" y="3859955"/>
+          <a:ext cx="853460" cy="454976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62992</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A89AECF-D605-42A5-B3FD-EE86E8D8D997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5904992" y="4710926"/>
+          <a:ext cx="1804858" cy="750073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214443</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>183900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>168076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0917FD6-1B5C-4996-802D-5669F46DB2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5802443" y="4435639"/>
+          <a:ext cx="715633" cy="454976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>備考</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62992</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DFBFB7-968F-4090-832E-04AFF7AE4B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5904992" y="4142186"/>
+          <a:ext cx="1804858" cy="318350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>96122</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171174</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5004A27A-1B9A-4F5A-81A8-40674921C79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7716122" y="4142186"/>
+          <a:ext cx="329052" cy="318350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33369</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>60227</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19002CDD-4202-4EA7-A2E5-F3311EE81438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875369" y="3075785"/>
+          <a:ext cx="1804858" cy="259345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>208013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>5621</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>189797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A5EE5B-E229-4EE0-ADAA-B52D71BAE205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5796013" y="2826340"/>
+          <a:ext cx="1321608" cy="455631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>スポット名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>204699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>130019</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ED2E01-A80F-4A7F-AEFF-23002FB02E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5792699" y="3273656"/>
+          <a:ext cx="1195320" cy="455630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ジャンル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>72290</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>222285</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6C6B19-90FA-4EA1-BA47-503B70B8B20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5914290" y="3565508"/>
+          <a:ext cx="2181995" cy="336022"/>
+          <a:chOff x="5825942" y="3989707"/>
+          <a:chExt cx="2181995" cy="334072"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="楕円 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B2AB26-53B8-46E4-83B5-0D99D43F44FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5981092" y="3989707"/>
+            <a:ext cx="322216" cy="323474"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="楕円 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3FC2A0-21E2-4B46-9B2F-B3FA245DD693}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6549302" y="3989707"/>
+            <a:ext cx="322216" cy="323474"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="楕円 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2446966F-4A6A-42AC-9F48-15662F37A159}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7117511" y="3989707"/>
+            <a:ext cx="322216" cy="323474"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="楕円 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99A9D2E-2176-4B41-8522-6557477DE3FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7685721" y="4000305"/>
+            <a:ext cx="322216" cy="323474"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="楕円 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F80ECD6-D1A3-4C3C-A0B4-5382FD729A65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5825942" y="4104527"/>
+            <a:ext cx="83153" cy="84787"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="楕円 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE19DF7-EFC5-489B-92B8-B4E1F9259499}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6403447" y="4100133"/>
+            <a:ext cx="83153" cy="84787"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="楕円 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A14047-73FE-434F-8ACE-628B82B41927}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6942164" y="4095738"/>
+            <a:ext cx="83153" cy="84787"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="楕円 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1181E32B-E576-4384-810A-046666AD9EB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7515359" y="4100133"/>
+            <a:ext cx="83153" cy="84787"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603B6552-E165-46A3-BD0F-5C175260B458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7911353" y="5378824"/>
+          <a:ext cx="597647" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>97118</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5EB17D-AF73-4468-BCB5-2EDBEF254B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7971118" y="5408705"/>
+          <a:ext cx="844177" cy="627530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>150531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>97118</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138288</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D810BEAC-53EE-49BA-A8AA-3DE2C9B19087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7784353" y="4229472"/>
+          <a:ext cx="186765" cy="181992"/>
+          <a:chOff x="8942294" y="4072590"/>
+          <a:chExt cx="336177" cy="327586"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832A5F41-F79D-41F2-AEBA-B31D59CAC04F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8942294" y="4146176"/>
+            <a:ext cx="336177" cy="254000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="台形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA565EFA-7ADF-4CDA-AFFF-6BC23A775CF5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9031940" y="4072590"/>
+            <a:ext cx="164353" cy="73585"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2F29C2-C2DA-4606-91F6-F21832D87496}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9016999" y="4183529"/>
+            <a:ext cx="186765" cy="186765"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>134518</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22011</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE72EE41-4C74-4C6E-B0CC-53228D189144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008518" y="2493497"/>
+          <a:ext cx="395493" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89694</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>170144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F6D8A4-FF05-440F-8564-5315C6BC597E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7709694" y="5026026"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74752</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>59764</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086EFC40-07C7-4CF6-8547-7CB6EC17C8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5408752" y="2964143"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>194281</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A0414E-13CA-418A-A27B-C11A6A31327C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5528281" y="3375025"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>29927</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>14939</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3565563F-C498-40E3-AD8B-3851CB98B81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6125927" y="3352613"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22456</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7468</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3BA5D6-C586-4CA7-9B2F-C91E219CB200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6626456" y="3345142"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>119573</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104585</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B399C329-EAE1-46F0-8198-C2FCC56D9B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7231573" y="3330201"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112103</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>97115</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D65A8F0-BACD-432D-A7CE-6622710B8942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5446103" y="4084730"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112103</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>97115</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F136CE51-90AF-4120-AA42-96457CCD31F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7986103" y="4069789"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141985</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>126997</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539D174E-28A7-4A83-A7FA-062D53BE91DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5475985" y="4600201"/>
+          <a:ext cx="493012" cy="517330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2684,8 +5145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2735,10 +5196,10 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
+      <c r="AG1" s="43"/>
       <c r="AH1" s="35" t="s">
         <v>54</v>
       </c>
@@ -2780,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="43">
+      <c r="Y2" s="38">
         <v>45082</v>
       </c>
       <c r="Z2" s="37"/>
@@ -2789,19 +5250,19 @@
       <c r="AC2" s="37"/>
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="42">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40">
         <v>45084</v>
       </c>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -5194,6 +7655,9 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
+      <c r="D62" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -5235,7 +7699,9 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC75E0E-2154-4536-805F-A08D8E45622E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF2762-C514-407B-A9F8-B4F330703A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -376,13 +376,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>日渡</t>
-    <rPh sb="0" eb="2">
-      <t>ヒワタリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ドロワーメニューが表示される</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
@@ -434,6 +427,147 @@
     <rPh sb="13" eb="15">
       <t>キロク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山下</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「９　×ボタン」クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録メニューを閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「１５、１６　カメラボタン」クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アップロードする画像を選択</t>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「１８　登録ボタン」クリック</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポットを登録する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット登録メニュー</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×ボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_genre</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GENRE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_remarks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_register</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポット登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>REMARKS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spot_image_input</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2596,14 +2730,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>92477</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>210241</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>411</xdr:rowOff>
+      <xdr:rowOff>412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2618,8 +2752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172477" y="2540000"/>
-          <a:ext cx="3419764" cy="3175411"/>
+          <a:off x="5172477" y="2009589"/>
+          <a:ext cx="3419764" cy="3817882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2666,15 +2800,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>192263</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>172357</xdr:rowOff>
+      <xdr:colOff>5498</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>77964</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>121558</xdr:rowOff>
+      <xdr:colOff>114781</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2689,8 +2823,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8320263" y="2697416"/>
-          <a:ext cx="139701" cy="143436"/>
+          <a:off x="8133498" y="2122181"/>
+          <a:ext cx="363283" cy="372996"/>
           <a:chOff x="3702049" y="2146299"/>
           <a:chExt cx="241301" cy="241301"/>
         </a:xfrm>
@@ -4092,15 +4226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>134518</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>162673</xdr:rowOff>
+      <xdr:colOff>7518</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22011</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>97298</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149011</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4115,7 +4249,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8008518" y="2493497"/>
+          <a:off x="7881518" y="1992968"/>
           <a:ext cx="395493" cy="517330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5145,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5201,7 +5335,7 @@
       </c>
       <c r="AG1" s="43"/>
       <c r="AH1" s="35" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -5255,7 +5389,7 @@
       </c>
       <c r="AG2" s="39"/>
       <c r="AH2" s="40">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>
@@ -6870,7 +7004,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -7281,7 +7415,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -7656,7 +7790,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -7700,7 +7834,7 @@
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7780,6 +7914,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="D65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -7821,7 +7958,9 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -7900,6 +8039,9 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
+      <c r="D68" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -7941,7 +8083,9 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -8020,6 +8164,9 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
+      <c r="D71" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -8063,7 +8210,9 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -8386,7 +8535,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
@@ -8636,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -8686,7 +8835,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -8717,18 +8866,18 @@
       </c>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
@@ -8744,19 +8893,29 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>8</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
+      <c r="O86" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="17"/>
@@ -8786,19 +8945,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>9</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
+      <c r="O87" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="17"/>
@@ -8828,31 +8997,49 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>10</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
+      <c r="O88" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
+      <c r="S88" s="14">
+        <v>0</v>
+      </c>
       <c r="T88" s="17"/>
-      <c r="U88" s="14"/>
+      <c r="U88" s="14">
+        <v>20</v>
+      </c>
       <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
+      <c r="W88" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
+      <c r="AA88" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="14"/>
@@ -8870,31 +9057,49 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>11</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
+      <c r="O89" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="17"/>
-      <c r="S89" s="14"/>
+      <c r="S89" s="14">
+        <v>1</v>
+      </c>
       <c r="T89" s="17"/>
-      <c r="U89" s="14"/>
+      <c r="U89" s="14">
+        <v>1</v>
+      </c>
       <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
+      <c r="W89" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
+      <c r="AA89" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="AB89" s="15"/>
       <c r="AC89" s="17"/>
       <c r="AD89" s="14"/>
@@ -8912,31 +9117,49 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13">
+        <v>12</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
+      <c r="O90" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
+      <c r="S90" s="14">
+        <v>1</v>
+      </c>
       <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
+      <c r="U90" s="14">
+        <v>1</v>
+      </c>
       <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
+      <c r="W90" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
       <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
+      <c r="AA90" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14"/>
@@ -8954,31 +9177,49 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13">
+        <v>13</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
+      <c r="O91" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
+      <c r="S91" s="14">
+        <v>1</v>
+      </c>
       <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
+      <c r="U91" s="14">
+        <v>1</v>
+      </c>
       <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
+      <c r="W91" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
+      <c r="AA91" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="AB91" s="15"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="14"/>
@@ -8996,31 +9237,49 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="13">
+        <v>14</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
+      <c r="O92" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
+      <c r="S92" s="14">
+        <v>1</v>
+      </c>
       <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
+      <c r="U92" s="14">
+        <v>1</v>
+      </c>
       <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
+      <c r="W92" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
+      <c r="AA92" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14"/>
@@ -9038,19 +9297,29 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="13">
+        <v>15</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="I93" s="16"/>
       <c r="J93" s="15"/>
       <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
+      <c r="O93" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="17"/>
@@ -9080,19 +9349,29 @@
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
+      <c r="C94" s="13">
+        <v>16</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
+      <c r="H94" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="I94" s="16"/>
       <c r="J94" s="15"/>
       <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
+      <c r="L94" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M94" s="15"/>
       <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
+      <c r="O94" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="17"/>
@@ -9122,31 +9401,49 @@
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
+      <c r="C95" s="13">
+        <v>17</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
+      <c r="H95" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="I95" s="16"/>
       <c r="J95" s="15"/>
       <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
+      <c r="L95" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M95" s="15"/>
       <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
+      <c r="O95" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
+      <c r="S95" s="14">
+        <v>0</v>
+      </c>
       <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
+      <c r="U95" s="14">
+        <v>100</v>
+      </c>
       <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
+      <c r="W95" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="X95" s="15"/>
       <c r="Y95" s="15"/>
       <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
+      <c r="AA95" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="AB95" s="15"/>
       <c r="AC95" s="17"/>
       <c r="AD95" s="14"/>
@@ -9164,19 +9461,29 @@
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
+      <c r="C96" s="13">
+        <v>18</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
+      <c r="H96" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="I96" s="16"/>
       <c r="J96" s="15"/>
       <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
+      <c r="L96" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M96" s="15"/>
       <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
+      <c r="O96" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF2762-C514-407B-A9F8-B4F330703A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084849A-AB0C-46E0-9DF6-08A2CE2D6CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -623,6 +623,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -938,12 +952,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,15 +1049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,9 +1069,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,8 +1078,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5279,8 +5337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5301,11 +5359,11 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
@@ -5317,10 +5375,10 @@
       <c r="T1" s="28"/>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="28" t="s">
         <v>21</v>
       </c>
@@ -5330,19 +5388,19 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -5355,48 +5413,48 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="35">
         <v>45082</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="36">
         <v>45085</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -5409,38 +5467,38 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5489,7 +5547,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -6913,7 +6971,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -6956,12 +7014,12 @@
       <c r="AN41" s="7"/>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="53" t="s">
         <v>34</v>
       </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -6972,7 +7030,6 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -7000,16 +7057,15 @@
       <c r="AN42" s="7"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="G43" s="1" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="2"/>
+      <c r="F43" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -7037,13 +7093,12 @@
       <c r="AN43" s="7"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="8"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
@@ -7071,23 +7126,22 @@
       <c r="AN44" s="7"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="56"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="53" t="s">
         <v>24</v>
       </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
@@ -7115,15 +7169,15 @@
       <c r="AN45" s="7"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -7131,7 +7185,6 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -7159,8 +7212,8 @@
       <c r="AN46" s="7"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -7173,7 +7226,6 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
@@ -7201,11 +7253,11 @@
       <c r="AN47" s="7"/>
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="D48" s="8" t="s">
+      <c r="A48" s="56"/>
+      <c r="C48" s="54" t="s">
         <v>26</v>
       </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -7216,7 +7268,6 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -7244,14 +7295,14 @@
       <c r="AN48" s="7"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="56"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -7259,7 +7310,6 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
@@ -7287,8 +7337,8 @@
       <c r="AN49" s="7"/>
     </row>
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="56"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -7299,7 +7349,6 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -7327,11 +7376,11 @@
       <c r="AN50" s="7"/>
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="D51" s="1" t="s">
+      <c r="A51" s="56"/>
+      <c r="C51" s="55" t="s">
         <v>28</v>
       </c>
+      <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -7342,7 +7391,6 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -7370,13 +7418,13 @@
       <c r="AN51" s="7"/>
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="56"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -7384,7 +7432,6 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -7412,11 +7459,11 @@
       <c r="AN52" s="7"/>
     </row>
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="D53" s="1" t="s">
+      <c r="A53" s="56"/>
+      <c r="C53" s="55" t="s">
         <v>55</v>
       </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -7425,9 +7472,8 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -7455,21 +7501,20 @@
       <c r="AN53" s="7"/>
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="A54" s="56"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -7497,8 +7542,8 @@
       <c r="AN54" s="7"/>
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="56"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -7507,9 +7552,8 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -7537,11 +7581,11 @@
       <c r="AN55" s="7"/>
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="D56" s="1" t="s">
+      <c r="A56" s="56"/>
+      <c r="C56" s="55" t="s">
         <v>30</v>
       </c>
+      <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -7552,7 +7596,6 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -7580,12 +7623,12 @@
       <c r="AN56" s="7"/>
     </row>
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="A57" s="56"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -7594,7 +7637,6 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -7622,8 +7664,8 @@
       <c r="AN57" s="7"/>
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="56"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -7634,7 +7676,6 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
@@ -7662,11 +7703,11 @@
       <c r="AN58" s="7"/>
     </row>
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="D59" s="1" t="s">
+      <c r="A59" s="56"/>
+      <c r="C59" s="55" t="s">
         <v>32</v>
       </c>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7677,7 +7718,6 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
@@ -7705,12 +7745,12 @@
       <c r="AN59" s="7"/>
     </row>
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="A60" s="56"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -7719,7 +7759,6 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
@@ -7747,8 +7786,8 @@
       <c r="AN60" s="7"/>
     </row>
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="56"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -7759,7 +7798,6 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
@@ -7787,11 +7825,11 @@
       <c r="AN61" s="7"/>
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="D62" s="1" t="s">
+      <c r="A62" s="56"/>
+      <c r="C62" s="55" t="s">
         <v>61</v>
       </c>
+      <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -7802,7 +7840,6 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -7830,12 +7867,12 @@
       <c r="AN62" s="7"/>
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+      <c r="A63" s="56"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -7844,7 +7881,6 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -7872,8 +7908,8 @@
       <c r="AN63" s="7"/>
     </row>
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="56"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -7884,7 +7920,6 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
@@ -7912,11 +7947,11 @@
       <c r="AN64" s="7"/>
     </row>
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="D65" s="1" t="s">
+      <c r="A65" s="56"/>
+      <c r="C65" s="55" t="s">
         <v>64</v>
       </c>
+      <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -7927,7 +7962,6 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
@@ -7955,12 +7989,12 @@
       <c r="AN65" s="7"/>
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="A66" s="56"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -7969,7 +8003,6 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
@@ -7997,8 +8030,8 @@
       <c r="AN66" s="7"/>
     </row>
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="56"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -8009,7 +8042,6 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -8037,11 +8069,11 @@
       <c r="AN67" s="7"/>
     </row>
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="56"/>
+      <c r="C68" s="55" t="s">
         <v>66</v>
       </c>
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -8052,7 +8084,6 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
@@ -8080,12 +8111,12 @@
       <c r="AN68" s="7"/>
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="A69" s="56"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -8094,7 +8125,6 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -8122,8 +8152,8 @@
       <c r="AN69" s="7"/>
     </row>
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="56"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -8134,7 +8164,6 @@
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -8162,11 +8191,11 @@
       <c r="AN70" s="7"/>
     </row>
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="D71" s="1" t="s">
+      <c r="A71" s="56"/>
+      <c r="C71" s="55" t="s">
         <v>68</v>
       </c>
+      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -8177,7 +8206,6 @@
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -8205,14 +8233,14 @@
       <c r="AN71" s="7"/>
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -8221,7 +8249,6 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -8376,7 +8403,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -8462,57 +8489,57 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="48"/>
+      <c r="D78" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="51"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="52"/>
+      <c r="U78" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="52"/>
+      <c r="W78" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="52"/>
+      <c r="AD78" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084849A-AB0C-46E0-9DF6-08A2CE2D6CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E73326-FBDA-4B6E-87EB-2FEDC3BF7012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,6 +1018,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,7 +1072,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,10 +1102,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,53 +1123,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1520,8 +1520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1456871" y="1572270"/>
-          <a:ext cx="237785" cy="221403"/>
+          <a:off x="1456871" y="1542388"/>
+          <a:ext cx="237785" cy="217667"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -2329,8 +2329,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3478301" y="1532003"/>
-          <a:ext cx="244928" cy="247305"/>
+          <a:off x="3478301" y="1505856"/>
+          <a:ext cx="244928" cy="239834"/>
           <a:chOff x="6504214" y="2364487"/>
           <a:chExt cx="244928" cy="245356"/>
         </a:xfrm>
@@ -2457,8 +2457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2830927" y="3113703"/>
-          <a:ext cx="331086" cy="341135"/>
+          <a:off x="2830927" y="3053938"/>
+          <a:ext cx="331086" cy="337400"/>
           <a:chOff x="2830927" y="3113703"/>
           <a:chExt cx="331086" cy="341135"/>
         </a:xfrm>
@@ -2596,8 +2596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4276054" y="2067324"/>
-          <a:ext cx="369322" cy="381173"/>
+          <a:off x="4276054" y="2029971"/>
+          <a:ext cx="369322" cy="373702"/>
           <a:chOff x="5073773" y="2252221"/>
           <a:chExt cx="369322" cy="373702"/>
         </a:xfrm>
@@ -2881,8 +2881,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8133498" y="2122181"/>
-          <a:ext cx="363283" cy="372996"/>
+          <a:off x="8133498" y="2084828"/>
+          <a:ext cx="363283" cy="365525"/>
           <a:chOff x="3702049" y="2146299"/>
           <a:chExt cx="241301" cy="241301"/>
         </a:xfrm>
@@ -3554,8 +3554,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5914290" y="3565508"/>
-          <a:ext cx="2181995" cy="336022"/>
+          <a:off x="5914290" y="3498273"/>
+          <a:ext cx="2181995" cy="328551"/>
           <a:chOff x="5825942" y="3989707"/>
           <a:chExt cx="2181995" cy="334072"/>
         </a:xfrm>
@@ -4113,8 +4113,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7784353" y="4229472"/>
-          <a:ext cx="186765" cy="181992"/>
+          <a:off x="7784353" y="4151031"/>
+          <a:ext cx="186765" cy="178257"/>
           <a:chOff x="8942294" y="4072590"/>
           <a:chExt cx="336177" cy="327586"/>
         </a:xfrm>
@@ -5337,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -5347,158 +5347,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
       <c r="X1" s="39"/>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="44" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="32" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="35">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="51">
         <v>45082</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="45" t="s">
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="36">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53">
         <v>45085</v>
       </c>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="42"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -7014,9 +7014,9 @@
       <c r="AN41" s="7"/>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="2"/>
@@ -7057,7 +7057,7 @@
       <c r="AN42" s="7"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2"/>
       <c r="F43" s="1" t="s">
         <v>54</v>
@@ -7093,7 +7093,7 @@
       <c r="AN43" s="7"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -7126,9 +7126,9 @@
       <c r="AN44" s="7"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="2"/>
@@ -7169,7 +7169,7 @@
       <c r="AN45" s="7"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -7212,7 +7212,7 @@
       <c r="AN46" s="7"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -7253,8 +7253,8 @@
       <c r="AN47" s="7"/>
     </row>
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="C48" s="54" t="s">
+      <c r="A48" s="29"/>
+      <c r="C48" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="8"/>
@@ -7295,7 +7295,7 @@
       <c r="AN48" s="7"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
+      <c r="A49" s="29"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -7337,7 +7337,7 @@
       <c r="AN49" s="7"/>
     </row>
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="29"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -7376,8 +7376,8 @@
       <c r="AN50" s="7"/>
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="C51" s="55" t="s">
+      <c r="A51" s="29"/>
+      <c r="C51" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="8"/>
@@ -7418,7 +7418,7 @@
       <c r="AN51" s="7"/>
     </row>
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
+      <c r="A52" s="29"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
@@ -7459,8 +7459,8 @@
       <c r="AN52" s="7"/>
     </row>
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="C53" s="55" t="s">
+      <c r="A53" s="29"/>
+      <c r="C53" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="8"/>
@@ -7501,7 +7501,7 @@
       <c r="AN53" s="7"/>
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="29"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
         <v>29</v>
@@ -7542,7 +7542,7 @@
       <c r="AN54" s="7"/>
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
+      <c r="A55" s="29"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -7581,8 +7581,8 @@
       <c r="AN55" s="7"/>
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
-      <c r="C56" s="55" t="s">
+      <c r="A56" s="29"/>
+      <c r="C56" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="8"/>
@@ -7623,7 +7623,7 @@
       <c r="AN56" s="7"/>
     </row>
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
+      <c r="A57" s="29"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8" t="s">
         <v>31</v>
@@ -7664,7 +7664,7 @@
       <c r="AN57" s="7"/>
     </row>
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="29"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -7703,8 +7703,8 @@
       <c r="AN58" s="7"/>
     </row>
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="29"/>
+      <c r="C59" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="8"/>
@@ -7745,7 +7745,7 @@
       <c r="AN59" s="7"/>
     </row>
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
+      <c r="A60" s="29"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
         <v>33</v>
@@ -7786,7 +7786,7 @@
       <c r="AN60" s="7"/>
     </row>
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
+      <c r="A61" s="29"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -7825,8 +7825,8 @@
       <c r="AN61" s="7"/>
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="C62" s="55" t="s">
+      <c r="A62" s="29"/>
+      <c r="C62" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D62" s="8"/>
@@ -7867,7 +7867,7 @@
       <c r="AN62" s="7"/>
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
+      <c r="A63" s="29"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
         <v>62</v>
@@ -7908,7 +7908,7 @@
       <c r="AN63" s="7"/>
     </row>
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+      <c r="A64" s="29"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -7947,8 +7947,8 @@
       <c r="AN64" s="7"/>
     </row>
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="C65" s="55" t="s">
+      <c r="A65" s="29"/>
+      <c r="C65" s="28" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="8"/>
@@ -7989,7 +7989,7 @@
       <c r="AN65" s="7"/>
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
+      <c r="A66" s="29"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
         <v>65</v>
@@ -8030,7 +8030,7 @@
       <c r="AN66" s="7"/>
     </row>
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56"/>
+      <c r="A67" s="29"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -8069,8 +8069,8 @@
       <c r="AN67" s="7"/>
     </row>
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="C68" s="55" t="s">
+      <c r="A68" s="29"/>
+      <c r="C68" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="8"/>
@@ -8111,7 +8111,7 @@
       <c r="AN68" s="7"/>
     </row>
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
+      <c r="A69" s="29"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8" t="s">
         <v>67</v>
@@ -8152,7 +8152,7 @@
       <c r="AN69" s="7"/>
     </row>
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
+      <c r="A70" s="29"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -8191,8 +8191,8 @@
       <c r="AN70" s="7"/>
     </row>
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
-      <c r="C71" s="55" t="s">
+      <c r="A71" s="29"/>
+      <c r="C71" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="8"/>
@@ -8233,7 +8233,7 @@
       <c r="AN71" s="7"/>
     </row>
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -8489,57 +8489,57 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="49" t="s">
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="51"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="49" t="s">
+      <c r="I78" s="24"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="50"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="49" t="s">
+      <c r="M78" s="23"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="49" t="s">
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="52"/>
-      <c r="U78" s="49" t="s">
+      <c r="T78" s="25"/>
+      <c r="U78" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="52"/>
-      <c r="W78" s="49" t="s">
+      <c r="V78" s="25"/>
+      <c r="W78" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="52"/>
-      <c r="AA78" s="49" t="s">
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="52"/>
-      <c r="AD78" s="49" t="s">
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="50"/>
-      <c r="AF78" s="50"/>
+      <c r="AE78" s="23"/>
+      <c r="AF78" s="23"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_マップ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E73326-FBDA-4B6E-87EB-2FEDC3BF7012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B73EB-FE46-4A88-AAE0-693681A4FEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2235,13 +2246,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2256,8 +2267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1968499" y="4245429"/>
-          <a:ext cx="1016000" cy="807357"/>
+          <a:off x="1968499" y="4245430"/>
+          <a:ext cx="1016000" cy="371928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5011,6 +5022,109 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F575101-BC38-499A-8D0A-A12D1E17E070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="526143" y="5778500"/>
+          <a:ext cx="5188857" cy="1369786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暫定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吹き出しを非表示にするＪｓ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ｊｓｐにＪｓを記述し＄｛｝で関数に値を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5337,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
